--- a/biology/Médecine/Syndrome_dysentérique/Syndrome_dysentérique.xlsx
+++ b/biology/Médecine/Syndrome_dysentérique/Syndrome_dysentérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_dysent%C3%A9rique</t>
+          <t>Syndrome_dysentérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le syndrome dysentérique caractérise la dysenterie qui est une infection intestinale par des germes entéro-invasifs.
 Les bactéries pénètrent et se multiplient dans les entérocytes, entraînant des lésions au niveau du côlon qui perd alors ses capacités d'absorption.
@@ -490,7 +502,7 @@
 une altération de l'état général, de la fièvre.
 Le syndrome dysenterique est causé par les bactéries de type Shigella dysenteriae
 Le syndrome dysenterique est à ne pas confondre avec le syndrome gastro-entéritique (bactéries de type Salmonella typhi et Salmonelloses mineures, et Yersinia pseudotuberculosis et Yersinia enterocolitica)
-qui doit également être distingué du syndrome cholériforme (Escherichia coli entérotoxinogène,  Staphylococcus aureus et  vibrio cholerae)[1].
+qui doit également être distingué du syndrome cholériforme (Escherichia coli entérotoxinogène,  Staphylococcus aureus et  vibrio cholerae).
 En effet, dans les deux derniers syndromes, il n'y a pas d'invasion ni destruction des cellules enterocytaires de la part des germes bactériens.
 Plus rarement un parasite peut donner une diarrhée invasive :
 Bilharziose
